--- a/15_レビュー議事録(計画).xlsx
+++ b/15_レビュー議事録(計画).xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{DC48B12A-2278-4A4B-A35C-D73A9AA15543}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{9BE878AA-9AFA-4A4F-989D-7808609ADC26}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{DC48B12A-2278-4A4B-A35C-D73A9AA15543}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{17ED4B17-41D4-4032-84A5-B1EBD883122B}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1875" windowWidth="18375" windowHeight="10290" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="1875" windowWidth="18375" windowHeight="10290" firstSheet="3" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要サンプル" sheetId="4" r:id="rId1"/>
     <sheet name="レビュー結果サンプル" sheetId="5" r:id="rId2"/>
-    <sheet name="概要" sheetId="7" r:id="rId3"/>
-    <sheet name="レビュー結果" sheetId="8" r:id="rId4"/>
+    <sheet name="レビュー結果" sheetId="8" r:id="rId3"/>
+    <sheet name="概要" sheetId="7" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="58">
   <si>
     <t>会議名</t>
     <rPh sb="0" eb="2">
@@ -280,6 +282,104 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>反復計画書</t>
+    <rPh sb="0" eb="5">
+      <t>ハンプクケイカクショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成果物のところは行動でなく作成するものを書く</t>
+    <rPh sb="0" eb="3">
+      <t>セイカブツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蜂須賀</t>
+    <rPh sb="0" eb="3">
+      <t>ハチスカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次回のレビューまでに訂正する。</t>
+    <rPh sb="0" eb="2">
+      <t>ジカイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WBSガントチャート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3日にやる予定の分析が2日の項目にある。</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次回のレビューまでに訂正する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工数の合計が5人のフルタイムを超えている。</t>
+    <rPh sb="0" eb="2">
+      <t>コウスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゴニン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反復計画書</t>
+  </si>
+  <si>
+    <t>その他</t>
+  </si>
+  <si>
+    <t>指摘なし。</t>
+  </si>
+  <si>
+    <t>蜂須賀</t>
+  </si>
+  <si>
+    <t>WBSガントチャート</t>
+  </si>
+  <si>
     <t>反復1 第1回レビュー</t>
     <rPh sb="0" eb="2">
       <t>ハンプク</t>
@@ -289,58 +389,6 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>カイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オンライン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>国正</t>
-  </si>
-  <si>
-    <t>舟橋</t>
-    <rPh sb="0" eb="2">
-      <t>フナハシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>計画立案</t>
-  </si>
-  <si>
-    <t>反復計画書・ガントチャートのレビュー</t>
-    <rPh sb="0" eb="2">
-      <t>ハンプク</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ケイカクショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>反復計画書</t>
-    <rPh sb="0" eb="5">
-      <t>ハンプクケイカクショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>浅川</t>
-    <rPh sb="0" eb="2">
-      <t>アサカワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ガントチャート</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>立石</t>
-    <rPh sb="0" eb="2">
-      <t>タテイシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -356,6 +404,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>オンライン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>浅川、川端、立石、舟橋、三上、
 蜂須賀(敬称略)</t>
     <rPh sb="16" eb="19">
@@ -364,78 +416,40 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>成果物のところは行動でなく作成するものを書く</t>
-    <rPh sb="0" eb="3">
-      <t>セイカブツ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>コウドウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>蜂須賀</t>
-    <rPh sb="0" eb="3">
-      <t>ハチスカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>次回のレビューまでに訂正する。</t>
+    <t>舟橋</t>
     <rPh sb="0" eb="2">
-      <t>ジカイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>テイセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>WBSガントチャート</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3日にやる予定の分析が2日の項目にある。</t>
-    <rPh sb="1" eb="2">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ブンセキ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>次回のレビューまでに訂正する。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>工数の合計が5人のフルタイムを超えている。</t>
+      <t>フナハシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計画立案</t>
+  </si>
+  <si>
+    <t>反復計画書・ガントチャートのレビュー</t>
     <rPh sb="0" eb="2">
-      <t>コウスウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ゴニン</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>コ</t>
+      <t>ハンプク</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ケイカクショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浅川</t>
+    <rPh sb="0" eb="2">
+      <t>アサカワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガントチャート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>立石</t>
+    <rPh sb="0" eb="2">
+      <t>タテイシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -444,7 +458,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -823,6 +837,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -838,10 +864,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -852,21 +881,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -994,7 +1008,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1321,19 +1335,19 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="20.875" customWidth="1"/>
-    <col min="4" max="4" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="24"/>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1341,11 +1355,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:7" ht="34.5" customHeight="1" thickBot="1">
+      <c r="A2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
@@ -1354,67 +1368,67 @@
       </c>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
-    </row>
-    <row r="4" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="28"/>
+    </row>
+    <row r="4" spans="1:7" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="19" t="s">
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="33"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="23" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="25"/>
-    </row>
-    <row r="6" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="D5" s="28"/>
+    </row>
+    <row r="6" spans="1:7" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="21" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="22"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D6" s="26"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
-    </row>
-    <row r="8" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="29"/>
+      <c r="D7" s="28"/>
+    </row>
+    <row r="8" spans="1:7" ht="36" customHeight="1" thickBot="1">
       <c r="A8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="23" t="s">
+      <c r="C8" s="32"/>
+      <c r="D8" s="33"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="31"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
@@ -1422,11 +1436,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="29" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="30"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="13" t="s">
         <v>20</v>
       </c>
@@ -1434,11 +1448,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="29" t="s">
+    <row r="11" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A11" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="13" t="s">
         <v>11</v>
       </c>
@@ -1446,11 +1460,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="29" t="s">
+    <row r="12" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A12" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="30"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="13" t="s">
         <v>20</v>
       </c>
@@ -1458,49 +1472,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
+    <row r="13" spans="1:7">
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="29"/>
-      <c r="B14" s="30"/>
+    <row r="14" spans="1:7">
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
+    <row r="15" spans="1:7">
+      <c r="A15" s="19"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
+    <row r="16" spans="1:7">
+      <c r="A16" s="19"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
+    <row r="17" spans="1:4">
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30"/>
+    <row r="18" spans="1:4">
+      <c r="A18" s="19"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="32"/>
-      <c r="B19" s="33"/>
+    <row r="19" spans="1:4" ht="14.25" thickBot="1">
+      <c r="A19" s="21"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="14.25" thickBot="1">
       <c r="C20" s="15" t="s">
         <v>23</v>
       </c>
@@ -1511,6 +1525,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
@@ -1520,18 +1546,6 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -1555,17 +1569,17 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.375" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="37.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.375" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1588,7 +1602,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="59.25" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1611,7 +1625,7 @@
         <v>40686</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1620,7 +1634,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1629,7 +1643,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1638,7 +1652,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1647,7 +1661,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1656,7 +1670,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1665,7 +1679,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1674,7 +1688,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1683,7 +1697,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1692,7 +1706,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1701,7 +1715,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1710,7 +1724,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1719,7 +1733,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1728,7 +1742,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1737,7 +1751,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1746,7 +1760,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1755,7 +1769,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1764,7 +1778,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1773,7 +1787,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1782,7 +1796,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1791,7 +1805,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1816,27 +1830,343 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView zoomScale="99" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="9">
+        <v>43984</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="9">
+        <v>43984</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="9">
+        <v>43984</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="27">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="27">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C23" xr:uid="{00000000-0002-0000-0100-000000000000}">
+      <formula1>"指摘,質問,その他"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.28999999999999998" right="0.28999999999999998" top="0.8" bottom="0.98425196850393704" header="0.39" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A17" zoomScale="92" zoomScaleNormal="85" zoomScalePageLayoutView="92" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" zoomScale="92" zoomScaleNormal="85" zoomScalePageLayoutView="92" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="20.875" customWidth="1"/>
-    <col min="4" max="4" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="24"/>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1844,79 +2174,79 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="22"/>
+    <row r="2" spans="1:4" ht="34.5" customHeight="1" thickBot="1">
+      <c r="A2" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
-    </row>
-    <row r="4" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="21" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="28"/>
+    </row>
+    <row r="4" spans="1:4" ht="27.75" customHeight="1">
+      <c r="A4" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="33"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="28"/>
+    </row>
+    <row r="6" spans="1:4" ht="27.75" customHeight="1">
+      <c r="A6" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="25"/>
-    </row>
-    <row r="6" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="22"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B6" s="26"/>
+      <c r="C6" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="26"/>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
-    </row>
-    <row r="8" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="29"/>
+      <c r="D7" s="28"/>
+    </row>
+    <row r="8" spans="1:4" ht="36" customHeight="1" thickBot="1">
       <c r="A8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="31"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
@@ -1924,79 +2254,79 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="30"/>
+    <row r="10" spans="1:4">
+      <c r="A10" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="20"/>
       <c r="C10" s="13" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D10" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="30"/>
+    <row r="11" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A11" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="20"/>
       <c r="C11" s="13" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D11" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="29"/>
-      <c r="B12" s="30"/>
+    <row r="12" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="13"/>
       <c r="D12" s="14"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
+    <row r="13" spans="1:4">
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="29"/>
-      <c r="B14" s="30"/>
+    <row r="14" spans="1:4">
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
+    <row r="15" spans="1:4">
+      <c r="A15" s="19"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
+    <row r="16" spans="1:4">
+      <c r="A16" s="19"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
+    <row r="17" spans="1:4">
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30"/>
+    <row r="18" spans="1:4">
+      <c r="A18" s="19"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="32"/>
-      <c r="B19" s="33"/>
+    <row r="19" spans="1:4" ht="14.25" thickBot="1">
+      <c r="A19" s="21"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="14.25" thickBot="1">
       <c r="C20" s="15" t="s">
         <v>23</v>
       </c>
@@ -2007,6 +2337,17 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:D3"/>
@@ -2017,17 +2358,6 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -2042,315 +2372,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G23"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="4.375" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="37.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="9">
-        <v>43984</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="9">
-        <v>43984</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="9">
-        <v>43984</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C23" xr:uid="{00000000-0002-0000-0100-000000000000}">
-      <formula1>"指摘,質問,その他"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.28999999999999998" right="0.28999999999999998" top="0.8" bottom="0.98425196850393704" header="0.39" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2538,43 +2572,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94CEECAD-71A6-41DD-8A07-4B3A9940E3CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94CEECAD-71A6-41DD-8A07-4B3A9940E3CF}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FEC69DF-4FC5-4CFA-A4E1-A18929104C19}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FEC69DF-4FC5-4CFA-A4E1-A18929104C19}"/>
 </file>